--- a/biology/Virologie/Togaviridae/Togaviridae.xlsx
+++ b/biology/Virologie/Togaviridae/Togaviridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Togaviridés
 Les Togaviridés (Togaviridae) sont une famille de virus à ARN, qui comprend le seul genre des Alphavirus : virus du chikungunya (espèce type), virus Sindbis, virus de l'encéphalite équine de l'Est, virus de l'encéphalite équine de l'Ouest, virus de Ross River, virus de l'o'nyong-nyong.
-Jusqu'en 2018 la famille des Togaviridae comprenait aussi le genre Rubivirus (espèce type : virus de la rubéole), mais il en a depuis été sorti pour constituer le seul genre de la famille des Matonaviridae[2].
+Jusqu'en 2018 la famille des Togaviridae comprenait aussi le genre Rubivirus (espèce type : virus de la rubéole), mais il en a depuis été sorti pour constituer le seul genre de la famille des Matonaviridae.
 Le génome des Togaviridae est linéaire, simple brin et à polarité positive (groupe IV), de taille comprise entre 10 et 12 kilobases. L'extrémité 5' porte une tête nucléotide méthylée et l'extrémité 3' a une queue polyadénylée. Les Togaviridae utilisent une stratégie à subgénome pour synthétiser les protéines virales. Les virus de cette famille ont une capside icosaédrique et une enveloppe biologique.
 </t>
         </is>
